--- a/RISF/Input_Template_Farm_new.xlsx
+++ b/RISF/Input_Template_Farm_new.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgOXkMZtGU4wppLr6ks18rMy7xhLw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgl/ZCBBDhzVLJ7q9DYS8koQtvoIw=="/>
     </ext>
   </extLst>
 </workbook>
@@ -326,7 +326,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -337,10 +337,10 @@
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
+      <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="11" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
@@ -606,9 +606,7 @@
     <col customWidth="1" min="1" max="1" width="18.75"/>
     <col customWidth="1" min="2" max="2" width="21.63"/>
     <col customWidth="1" min="3" max="3" width="62.75"/>
-    <col customWidth="1" min="4" max="4" width="12.63"/>
     <col customWidth="1" min="5" max="5" width="19.38"/>
-    <col customWidth="1" min="6" max="6" width="12.63"/>
     <col customWidth="1" min="7" max="7" width="48.63"/>
   </cols>
   <sheetData>
@@ -671,7 +669,7 @@
       <c r="A5" s="7">
         <v>3.0</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -787,13 +785,13 @@
       <c r="C12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -801,8 +799,8 @@
       <c r="A13" s="7">
         <v>11.0</v>
       </c>
-      <c r="B13" s="8">
-        <v>2.5</v>
+      <c r="B13" s="13">
+        <v>1.5</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>31</v>
@@ -816,7 +814,7 @@
       <c r="G13" s="15">
         <v>1.099974368E7</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="12" t="s">
         <v>34</v>
       </c>
     </row>
@@ -832,7 +830,7 @@
       <c r="G14" s="15">
         <v>-94670.03997</v>
       </c>
-      <c r="H14" s="13"/>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="B15" s="2"/>
@@ -846,7 +844,7 @@
       <c r="G15" s="15">
         <v>130.7782628</v>
       </c>
-      <c r="H15" s="13"/>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="B16" s="2"/>
@@ -860,7 +858,7 @@
       <c r="G16" s="15">
         <v>-0.050682689</v>
       </c>
-      <c r="H16" s="13"/>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="B17" s="2"/>
@@ -874,7 +872,7 @@
       <c r="G17" s="16">
         <v>-2.17522E-7</v>
       </c>
-      <c r="H17" s="13"/>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="B18" s="2"/>
@@ -890,10 +888,10 @@
     <row r="20" ht="15.75" customHeight="1">
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="12" t="s">
         <v>45</v>
       </c>
     </row>
@@ -952,13 +950,13 @@
     <row r="27" ht="15.75" customHeight="1">
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G27" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="H27" s="12" t="s">
         <v>34</v>
       </c>
     </row>
@@ -974,7 +972,7 @@
       <c r="G28" s="15">
         <v>142.7942484</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="H28" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -990,7 +988,7 @@
       <c r="G29" s="16">
         <v>-1.65183E-5</v>
       </c>
-      <c r="H29" s="13"/>
+      <c r="H29" s="12"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="B30" s="2"/>
@@ -1004,7 +1002,7 @@
       <c r="G30" s="16">
         <v>4.68247E-13</v>
       </c>
-      <c r="H30" s="13"/>
+      <c r="H30" s="12"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="B31" s="2"/>
@@ -1018,7 +1016,7 @@
       <c r="G31" s="16">
         <v>-1.76119E-20</v>
       </c>
-      <c r="H31" s="13"/>
+      <c r="H31" s="12"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="B32" s="2"/>
@@ -1032,7 +1030,7 @@
       <c r="G32" s="16">
         <v>3.88805E-28</v>
       </c>
-      <c r="H32" s="13"/>
+      <c r="H32" s="12"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="B33" s="2"/>

--- a/RISF/Input_Template_Farm_new.xlsx
+++ b/RISF/Input_Template_Farm_new.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgl/ZCBBDhzVLJ7q9DYS8koQtvoIw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mg0n5QAIytGUly9TTJu2/HHuOAW8w=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
   <si>
     <t>This spreadsheet will contain farm details relating to animal numbers and types and manure storage design</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Farrow-wean</t>
-  </si>
-  <si>
-    <t>WaterLoss_Coeff</t>
   </si>
   <si>
     <t>Percentage value representing water loss from barn into manure system</t>
@@ -337,10 +334,10 @@
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="11" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
@@ -669,17 +666,17 @@
       <c r="A5" s="7">
         <v>3.0</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>12</v>
       </c>
       <c r="F5" s="11">
         <v>2.0</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
@@ -687,16 +684,16 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="F6" s="11">
         <v>3.0</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
@@ -704,16 +701,16 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="F7" s="11">
         <v>4.0</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -721,16 +718,16 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>21</v>
       </c>
       <c r="F8" s="11">
         <v>5.0</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -741,7 +738,7 @@
         <v>40.0</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="11">
         <v>6.0</v>
@@ -758,7 +755,7 @@
         <v>30.0</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -769,10 +766,10 @@
         <v>50.4</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -783,96 +780,96 @@
         <v>12.0</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="G12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="H12" s="13" t="s">
         <v>29</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="7">
         <v>11.0</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="8">
         <v>1.5</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="F13" s="14" t="s">
         <v>32</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>33</v>
       </c>
       <c r="G13" s="15">
         <v>1.099974368E7</v>
       </c>
-      <c r="H13" s="12" t="s">
-        <v>34</v>
+      <c r="H13" s="13" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="E14" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="14" t="s">
         <v>35</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>36</v>
       </c>
       <c r="G14" s="15">
         <v>-94670.03997</v>
       </c>
-      <c r="H14" s="12"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="E15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="14" t="s">
         <v>37</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>38</v>
       </c>
       <c r="G15" s="15">
         <v>130.7782628</v>
       </c>
-      <c r="H15" s="12"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
       <c r="E16" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="14" t="s">
         <v>39</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>40</v>
       </c>
       <c r="G16" s="15">
         <v>-0.050682689</v>
       </c>
-      <c r="H16" s="12"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="E17" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="G17" s="16">
         <v>-2.17522E-7</v>
       </c>
-      <c r="H17" s="12"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="B18" s="2"/>
@@ -882,27 +879,27 @@
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
       <c r="F19" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="13" t="s">
         <v>44</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
       <c r="E21" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="14" t="s">
         <v>46</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>47</v>
       </c>
       <c r="G21" s="15">
         <v>151165.2</v>
@@ -914,10 +911,10 @@
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
       <c r="E22" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>49</v>
       </c>
       <c r="G22" s="15">
         <v>-384.9</v>
@@ -944,93 +941,93 @@
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
       <c r="F26" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G27" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>34</v>
+      <c r="H27" s="13" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
       <c r="E28" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="14" t="s">
         <v>53</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>54</v>
       </c>
       <c r="G28" s="15">
         <v>142.7942484</v>
       </c>
-      <c r="H28" s="12" t="s">
-        <v>30</v>
+      <c r="H28" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
       <c r="E29" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="14" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>56</v>
       </c>
       <c r="G29" s="16">
         <v>-1.65183E-5</v>
       </c>
-      <c r="H29" s="12"/>
+      <c r="H29" s="13"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
       <c r="E30" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="14" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>58</v>
       </c>
       <c r="G30" s="16">
         <v>4.68247E-13</v>
       </c>
-      <c r="H30" s="12"/>
+      <c r="H30" s="13"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
       <c r="E31" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G31" s="16">
         <v>-1.76119E-20</v>
       </c>
-      <c r="H31" s="12"/>
+      <c r="H31" s="13"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="B32" s="2"/>
       <c r="C32" s="3"/>
       <c r="E32" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="14" t="s">
         <v>60</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>61</v>
       </c>
       <c r="G32" s="16">
         <v>3.88805E-28</v>
       </c>
-      <c r="H32" s="12"/>
+      <c r="H32" s="13"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="B33" s="2"/>
